--- a/Source/NPOIDemo/bin/Debug/新建 Microsoft Excel 工作表.xlsx
+++ b/Source/NPOIDemo/bin/Debug/新建 Microsoft Excel 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3975" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -47,12 +47,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -357,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G10"/>
+  <dimension ref="A3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -385,7 +401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -405,7 +421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -425,7 +441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -445,7 +461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -465,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -485,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -505,7 +521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -527,6 +543,9 @@
       <c r="G10">
         <v>7</v>
       </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
